--- a/wash_P/DOM.xlsx
+++ b/wash_P/DOM.xlsx
@@ -66148,7 +66148,7 @@
         <v>0</v>
       </c>
       <c r="MU21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MV21" t="n">
         <v>0</v>
